--- a/data/trans_media/IQ3005_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3005_MoAR-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,43</t>
+          <t>11,23; 12,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 11,64</t>
+          <t>10,24; 11,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,83</t>
+          <t>7,51; 10,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,0</t>
+          <t>10,52; 16,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,46</t>
+          <t>10,09; 12,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 10,69</t>
+          <t>8,03; 10,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 13,74</t>
+          <t>11,37; 13,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 11,8</t>
+          <t>10,51; 11,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 10,53</t>
+          <t>8,17; 10,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 11,86</t>
+          <t>9,45; 11,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,96; 12,84</t>
+          <t>10,93; 13,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,28</t>
+          <t>8,44; 11,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 11,58</t>
+          <t>9,63; 11,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 11,73</t>
+          <t>10,24; 11,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,6</t>
+          <t>9,34; 11,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 11,49</t>
+          <t>9,85; 11,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 12,05</t>
+          <t>10,86; 12,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 10,92</t>
+          <t>9,13; 10,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 11,66</t>
+          <t>9,97; 11,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,65</t>
+          <t>9,81; 11,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,4</t>
+          <t>8,65; 10,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 11,77</t>
+          <t>9,66; 11,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 11,98</t>
+          <t>10,27; 11,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,1</t>
+          <t>7,65; 10,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 11,46</t>
+          <t>10,3; 11,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 11,62</t>
+          <t>10,3; 11,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 9,97</t>
+          <t>8,51; 10,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 12,82</t>
+          <t>10,48; 12,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,37 +1135,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 10,33</t>
+          <t>7,76; 10,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,1</t>
+          <t>9,28; 12,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,23</t>
+          <t>10,5; 14,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,84</t>
+          <t>8,62; 10,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 12,06</t>
+          <t>10,3; 12,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,29</t>
+          <t>10,31; 12,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 10,26</t>
+          <t>8,55; 10,29</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,71; 11,79</t>
+          <t>10,74; 11,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,61</t>
+          <t>10,65; 11,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 10,01</t>
+          <t>8,71; 10,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 11,89</t>
+          <t>10,46; 11,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,09</t>
+          <t>10,79; 12,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 10,34</t>
+          <t>9,15; 10,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 11,73</t>
+          <t>10,76; 11,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,9; 11,72</t>
+          <t>10,89; 11,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,04</t>
+          <t>9,06; 10,01</t>
         </is>
       </c>
     </row>
